--- a/xlsx/美国各州时区列表_intext.xlsx
+++ b/xlsx/美国各州时区列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>美国各州时区列表</t>
   </si>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (佛羅里達州)</t>
+    <t>富兰克林县 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛達荷州</t>
+    <t>爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E5%B7%9E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%87%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>埃文斯維爾</t>
+    <t>埃文斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E5%A0%A4</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易維爾</t>
+    <t>路易维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -467,25 +467,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -497,25 +497,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -527,31 +527,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -3466,7 +3463,7 @@
         <v>175</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3492,10 +3489,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3521,10 +3518,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3550,10 +3547,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3579,10 +3576,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3608,10 +3605,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
